--- a/protobuff/backup/Taoist/TaoistMagic.xlsx
+++ b/protobuff/backup/Taoist/TaoistMagic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="20" windowWidth="34260" windowHeight="19000" activeTab="2"/>
+    <workbookView xWindow="1760" yWindow="20" windowWidth="34260" windowHeight="19000"/>
   </bookViews>
   <sheets>
     <sheet name="TaoistMagicCfg" sheetId="1" r:id="rId1"/>
@@ -910,16 +910,16 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Gold</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>All</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>All</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1115,11 +1115,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="76">
+  <cellStyleXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1386,7 +1392,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="76">
+  <cellStyles count="78">
     <cellStyle name="40% - 强调文字颜色 5" xfId="1" builtinId="47"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -1425,6 +1431,7 @@
     <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -1462,6 +1469,7 @@
     <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1732,7 +1740,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1742,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:L22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1884,13 +1892,13 @@
         <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>29</v>
@@ -1946,7 +1954,7 @@
         <v>101</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15">
@@ -1984,7 +1992,7 @@
         <v>101</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15">
@@ -2022,7 +2030,7 @@
         <v>101</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15">
@@ -2060,7 +2068,7 @@
         <v>101</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15">
@@ -2098,7 +2106,7 @@
         <v>101</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15">
@@ -2136,7 +2144,7 @@
         <v>101</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15">
@@ -2174,7 +2182,7 @@
         <v>101</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15">
@@ -2212,7 +2220,7 @@
         <v>101</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15">
@@ -2250,7 +2258,7 @@
         <v>101</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15">
@@ -2288,7 +2296,7 @@
         <v>101</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15">
@@ -2326,7 +2334,7 @@
         <v>102</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15">
@@ -2364,7 +2372,7 @@
         <v>102</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15">
@@ -2402,7 +2410,7 @@
         <v>102</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15">
@@ -2440,7 +2448,7 @@
         <v>102</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15">
@@ -2478,7 +2486,7 @@
         <v>102</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15">
@@ -2516,7 +2524,7 @@
         <v>102</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15">
@@ -2554,7 +2562,7 @@
         <v>102</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15">
@@ -2592,7 +2600,7 @@
         <v>102</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2881,7 +2889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>

--- a/protobuff/backup/Taoist/TaoistMagic.xlsx
+++ b/protobuff/backup/Taoist/TaoistMagic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="20" windowWidth="34260" windowHeight="19000"/>
+    <workbookView xWindow="3900" yWindow="0" windowWidth="34260" windowHeight="19040"/>
   </bookViews>
   <sheets>
     <sheet name="TaoistMagicCfg" sheetId="1" r:id="rId1"/>
@@ -1750,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2890,10 +2890,10 @@
   <dimension ref="A1:F184"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6244,7 +6244,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
